--- a/public/files/Template_Excel.xlsx
+++ b/public/files/Template_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\telkom-baru\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF41392A-DC9C-4AAB-AE6C-795B1E15E2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E515C-946F-4703-997C-41CF023272A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1274AEBA-C39D-4720-BE62-E892F9E1E4F3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>realisasi_mos</t>
+  </si>
+  <si>
+    <t>project_type</t>
   </si>
 </sst>
 </file>
@@ -593,115 +596,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203AA5DD-6EA3-4B5D-BE23-FAE39E2A3653}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="33" width="14.06640625" customWidth="1"/>
+    <col min="1" max="34" width="14.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
